--- a/Threshold/Zn/3His/2_2.xlsx
+++ b/Threshold/Zn/3His/2_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\250330_Metal_installer_revision\Zn\3His\threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E17E1-64A1-4771-B390-7CD4198E4A8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02383793-3A22-4703-8875-F02A7BBB52C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,7 +466,7 @@
         <v>5.5</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>0.7</v>
       </c>
       <c r="C4" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
